--- a/NoteCongViec.xlsx
+++ b/NoteCongViec.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Công việc</t>
   </si>
@@ -41,6 +42,30 @@
   </si>
   <si>
     <t>Làm đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Sửa API api/pvoilbusiness/syncCategory thêm trả về danh mục 6. QUYTRINHPHATHANH</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice thêm trả về Soduthao</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice chèn thêm Data vào table AdjustInv</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice   validate  và insert dữ liệu theo type,status,draftcancel của Invoice</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice update Status trong table AdjustInv theo type,status,draftcancel của Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa api/pvoilbusiness/searchInvoice thêm trả về Soduthao
+Trangthaikiemtra
+Ghichu, Type,Status,DraftCancel
+</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice update check username và password</t>
   </si>
 </sst>
 </file>
@@ -84,13 +109,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,4 +499,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NoteCongViec.xlsx
+++ b/NoteCongViec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Công việc</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Sửa api/pvoilbusiness/createInvoice update check username và password</t>
+  </si>
+  <si>
+    <t>Thêm API api/pvoilbusiness/createInvoice?noCheckOk=1</t>
+  </si>
+  <si>
+    <t>Sửa api/pvoilbusiness/createInvoice tách trường hợp hủy hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +581,25 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
